--- a/기획서/20230718.LCBD 플레이블 캐릭터 기획서.차경환.xlsx
+++ b/기획서/20230718.LCBD 플레이블 캐릭터 기획서.차경환.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\SA창동\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D5E62-0D8D-4E13-835B-C1D8C8322E9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42058270-346A-4F2D-BE1C-4BD167BAD07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4C0AF84A-8E5F-4C08-878B-7E58D60EE5CA}"/>
+    <workbookView xWindow="3015" yWindow="915" windowWidth="18810" windowHeight="12720" activeTab="1" xr2:uid="{4C0AF84A-8E5F-4C08-878B-7E58D60EE5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -1263,7 +1263,7 @@
   <dimension ref="B2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
